--- a/prototipo/optimizacion_python/optimizacion_tiempos.xlsx
+++ b/prototipo/optimizacion_python/optimizacion_tiempos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerar\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerar\Desktop\tesis_ger\prototipo\optimizacion_python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F6D67F-4047-42E8-B305-5A1AA6817989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FF7316-4613-434D-A3F5-9B722C5EA139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{D17ADDD0-CD59-446A-A1BF-7F6EB0ABB40A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D17ADDD0-CD59-446A-A1BF-7F6EB0ABB40A}"/>
   </bookViews>
   <sheets>
     <sheet name="desfases marcadores" sheetId="1" r:id="rId1"/>
@@ -114,11 +114,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -171,11 +170,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-419"/>
-              <a:t>Comparación de tiempos utilizando</a:t>
+              <a:t>Comparación de tiempos al</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="es-419" baseline="0"/>
-              <a:t> ciclos for y operaciones con NumPy</a:t>
+              <a:t> aplicar el desfase de los marcadores</a:t>
             </a:r>
             <a:endParaRPr lang="es-419"/>
           </a:p>
@@ -252,6 +251,57 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:name>Lineal</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.6619131217673249E-2"/>
+                  <c:y val="-1.7290845725200978E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-419"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:errBars>
             <c:errDir val="x"/>
             <c:errBarType val="both"/>
@@ -435,6 +485,57 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:name>Lineal</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.2119482744473096E-2"/>
+                  <c:y val="-8.307822214913245E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-419"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:errBars>
             <c:errDir val="x"/>
             <c:errBarType val="both"/>
@@ -583,7 +684,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
+          <c:dLblPos val="l"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -951,11 +1052,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-419"/>
-              <a:t>Comparación de tiempos utilizando</a:t>
+              <a:t>Comparación de tiempos al calcular las</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="es-419" baseline="0"/>
-              <a:t> ciclos for y operaciones con NumPy</a:t>
+              <a:t> distancias entre agentes</a:t>
             </a:r>
             <a:endParaRPr lang="es-419"/>
           </a:p>
@@ -1032,6 +1133,57 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:name>Exponencial</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.0039229504597049E-2"/>
+                  <c:y val="-8.1201573677585848E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-419"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:errBars>
             <c:errDir val="x"/>
             <c:errBarType val="both"/>
@@ -1287,6 +1439,57 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:name>Lineal</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.0424435948852658E-2"/>
+                  <c:y val="-9.8039228088373884E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-419"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:errBars>
             <c:errDir val="x"/>
             <c:errBarType val="both"/>
@@ -1559,7 +1762,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-419"/>
-                  <a:t>Cantidad de marcadores</a:t>
+                  <a:t>Cantidad de agentes</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1633,6 +1836,7 @@
         <c:crossAx val="2133547120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="2133547120"/>
@@ -1874,11 +2078,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-419"/>
-              <a:t>Comparación de tiempos utilizando</a:t>
+              <a:t>Comparación de tiempos al</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="es-419" baseline="0"/>
-              <a:t> ciclos for y operaciones con NumPy</a:t>
+              <a:t> calcular el error cuadrático medio de la formación</a:t>
             </a:r>
             <a:endParaRPr lang="es-419"/>
           </a:p>
@@ -1955,6 +2159,57 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:name>Exponencial</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.8176236788330134E-2"/>
+                  <c:y val="-7.7475474538427971E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-419"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:errBars>
             <c:errDir val="x"/>
             <c:errBarType val="both"/>
@@ -2210,6 +2465,57 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:name>Lineal</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.1771227489411031E-2"/>
+                  <c:y val="-0.13524898640742311"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-419"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:errBars>
             <c:errDir val="x"/>
             <c:errBarType val="both"/>
@@ -2482,7 +2788,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-419"/>
-                  <a:t>Cantidad de marcadores</a:t>
+                  <a:t>Cantidad de agentes</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2556,6 +2862,7 @@
         <c:crossAx val="2133547120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="2133547120"/>
@@ -4876,8 +5183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD797051-2436-4494-B1A8-991EACB05596}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5049,7 +5356,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5136,7 +5443,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>5</v>
       </c>
       <c r="B8" s="2">
@@ -5150,7 +5457,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>6</v>
       </c>
       <c r="B9" s="2">
@@ -5164,7 +5471,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>7</v>
       </c>
       <c r="B10" s="2">
@@ -5178,7 +5485,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>8</v>
       </c>
       <c r="B11" s="2">
@@ -5192,7 +5499,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>9</v>
       </c>
       <c r="B12" s="2">
@@ -5206,7 +5513,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>10</v>
       </c>
       <c r="B13" s="2">
@@ -5295,7 +5602,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>5</v>
       </c>
       <c r="B23" s="2">
@@ -5309,7 +5616,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>6</v>
       </c>
       <c r="B24" s="2">
@@ -5323,7 +5630,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>7</v>
       </c>
       <c r="B25" s="2">
@@ -5337,7 +5644,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>8</v>
       </c>
       <c r="B26" s="2">
@@ -5351,7 +5658,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>9</v>
       </c>
       <c r="B27" s="2">
@@ -5365,7 +5672,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>10</v>
       </c>
       <c r="B28" s="2">
@@ -5388,8 +5695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1315053-8711-498D-81C0-5042B8A0D1BC}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5476,7 +5783,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>5</v>
       </c>
       <c r="B8" s="2">
@@ -5490,7 +5797,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>6</v>
       </c>
       <c r="B9" s="2">
@@ -5504,7 +5811,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>7</v>
       </c>
       <c r="B10" s="2">
@@ -5518,7 +5825,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>8</v>
       </c>
       <c r="B11" s="2">
@@ -5532,7 +5839,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>9</v>
       </c>
       <c r="B12" s="2">
@@ -5546,7 +5853,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>10</v>
       </c>
       <c r="B13" s="2">
@@ -5635,7 +5942,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>5</v>
       </c>
       <c r="B23" s="2">
@@ -5649,7 +5956,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>6</v>
       </c>
       <c r="B24" s="2">
@@ -5663,7 +5970,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>7</v>
       </c>
       <c r="B25" s="2">
@@ -5677,7 +5984,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>8</v>
       </c>
       <c r="B26" s="2">
@@ -5691,7 +5998,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>9</v>
       </c>
       <c r="B27" s="2">
@@ -5705,7 +6012,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>10</v>
       </c>
       <c r="B28" s="2">

--- a/prototipo/optimizacion_python/optimizacion_tiempos.xlsx
+++ b/prototipo/optimizacion_python/optimizacion_tiempos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerar\Desktop\tesis_ger\prototipo\optimizacion_python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FF7316-4613-434D-A3F5-9B722C5EA139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC64967D-0246-402C-A241-41D0EE62601D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D17ADDD0-CD59-446A-A1BF-7F6EB0ABB40A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{D17ADDD0-CD59-446A-A1BF-7F6EB0ABB40A}"/>
   </bookViews>
   <sheets>
     <sheet name="desfases marcadores" sheetId="1" r:id="rId1"/>
@@ -684,7 +684,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="l"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1440,7 +1439,7 @@
             </c:spPr>
           </c:marker>
           <c:trendline>
-            <c:name>Lineal</c:name>
+            <c:name>Exponencial</c:name>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
@@ -1450,7 +1449,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="power"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -2265,7 +2264,7 @@
                     <c:v>8.9499999999999996E-4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>7.4970000000000002E-3</c:v>
+                    <c:v>8.0850000000000002E-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>7.1399999999999996E-3</c:v>
@@ -2277,7 +2276,7 @@
                     <c:v>8.2920000000000008E-3</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1.0200000000000001E-2</c:v>
+                    <c:v>1.0952E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>8.6479999999999994E-3</c:v>
@@ -2286,7 +2285,7 @@
                     <c:v>1.1905000000000001E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>1.5436999999999999E-2</c:v>
+                    <c:v>1.3256E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2304,7 +2303,7 @@
                     <c:v>8.9499999999999996E-4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>7.4970000000000002E-3</c:v>
+                    <c:v>8.0850000000000002E-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>7.1399999999999996E-3</c:v>
@@ -2316,7 +2315,7 @@
                     <c:v>8.2920000000000008E-3</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1.0200000000000001E-2</c:v>
+                    <c:v>1.0952E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>8.6479999999999994E-3</c:v>
@@ -2325,7 +2324,7 @@
                     <c:v>1.1905000000000001E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>1.5436999999999999E-2</c:v>
+                    <c:v>1.3256E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2396,7 +2395,7 @@
                   <c:v>1.1010000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9526000000000002E-2</c:v>
+                  <c:v>1.8721000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.9093000000000001E-2</c:v>
@@ -2408,7 +2407,7 @@
                   <c:v>5.8559E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.1211000000000005E-2</c:v>
+                  <c:v>7.5147000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.10355399999999999</c:v>
@@ -2417,7 +2416,7 @@
                   <c:v>0.12803200000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.15473300000000001</c:v>
+                  <c:v>0.14983299999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2466,7 +2465,7 @@
             </c:spPr>
           </c:marker>
           <c:trendline>
-            <c:name>Lineal</c:name>
+            <c:name>Exponencial</c:name>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
@@ -2476,14 +2475,14 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="power"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="6.1771227489411031E-2"/>
-                  <c:y val="-0.13524898640742311"/>
+                  <c:x val="6.116978889597053E-2"/>
+                  <c:y val="-0.14426853720090321"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2571,7 +2570,7 @@
                     <c:v>2.3890000000000001E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>6.0359999999999997E-3</c:v>
+                    <c:v>3.186E-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>3.4229999999999998E-3</c:v>
@@ -2583,7 +2582,7 @@
                     <c:v>4.5300000000000002E-3</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>3.0630000000000001E-2</c:v>
+                    <c:v>5.5890000000000002E-3</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>3.1459999999999999E-3</c:v>
@@ -2592,7 +2591,7 @@
                     <c:v>4.7299999999999998E-3</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>2.4872999999999999E-2</c:v>
+                    <c:v>2.4888E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2610,7 +2609,7 @@
                     <c:v>2.3890000000000001E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>6.0359999999999997E-3</c:v>
+                    <c:v>3.186E-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>3.4229999999999998E-3</c:v>
@@ -2622,7 +2621,7 @@
                     <c:v>4.5300000000000002E-3</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>3.0630000000000001E-2</c:v>
+                    <c:v>5.5890000000000002E-3</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>3.1459999999999999E-3</c:v>
@@ -2631,7 +2630,7 @@
                     <c:v>4.7299999999999998E-3</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>2.4872999999999999E-2</c:v>
+                    <c:v>2.4888E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2702,7 +2701,7 @@
                   <c:v>2.0229E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2242000000000001E-2</c:v>
+                  <c:v>2.0081000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.0133999999999999E-2</c:v>
@@ -2714,7 +2713,7 @@
                   <c:v>2.1065E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.3678000000000001E-2</c:v>
+                  <c:v>2.1142999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2.2082000000000001E-2</c:v>
@@ -2723,7 +2722,7 @@
                   <c:v>2.2348E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.2894000000000001E-2</c:v>
+                  <c:v>2.2454999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5183,7 +5182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD797051-2436-4494-B1A8-991EACB05596}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
@@ -5356,7 +5355,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5695,8 +5694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1315053-8711-498D-81C0-5042B8A0D1BC}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5762,10 +5761,10 @@
         <v>1000</v>
       </c>
       <c r="C6" s="2">
-        <v>1.9526000000000002E-2</v>
+        <v>1.8721000000000002E-2</v>
       </c>
       <c r="D6" s="2">
-        <v>7.4970000000000002E-3</v>
+        <v>8.0850000000000002E-3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -5818,10 +5817,10 @@
         <v>1000</v>
       </c>
       <c r="C10" s="2">
-        <v>8.1211000000000005E-2</v>
+        <v>7.5147000000000005E-2</v>
       </c>
       <c r="D10" s="2">
-        <v>1.0200000000000001E-2</v>
+        <v>1.0952E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -5860,10 +5859,10 @@
         <v>1000</v>
       </c>
       <c r="C13" s="2">
-        <v>0.15473300000000001</v>
+        <v>0.14983299999999999</v>
       </c>
       <c r="D13" s="2">
-        <v>1.5436999999999999E-2</v>
+        <v>1.3256E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -5921,10 +5920,10 @@
         <v>1000</v>
       </c>
       <c r="C21" s="2">
-        <v>2.2242000000000001E-2</v>
+        <v>2.0081000000000002E-2</v>
       </c>
       <c r="D21" s="2">
-        <v>6.0359999999999997E-3</v>
+        <v>3.186E-3</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -5977,10 +5976,10 @@
         <v>1000</v>
       </c>
       <c r="C25" s="2">
-        <v>2.3678000000000001E-2</v>
+        <v>2.1142999999999999E-2</v>
       </c>
       <c r="D25" s="2">
-        <v>3.0630000000000001E-2</v>
+        <v>5.5890000000000002E-3</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -6019,10 +6018,10 @@
         <v>1000</v>
       </c>
       <c r="C28" s="2">
-        <v>2.2894000000000001E-2</v>
+        <v>2.2454999999999999E-2</v>
       </c>
       <c r="D28" s="2">
-        <v>2.4872999999999999E-2</v>
+        <v>2.4888E-2</v>
       </c>
     </row>
   </sheetData>
